--- a/data/trans_dic/P44-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44-Estudios-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.1005970070953867</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.348748310851939</v>
+        <v>0.3487483108519389</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.06521708097604074</v>
@@ -655,7 +655,7 @@
         <v>0.0791849780988487</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.272046895522399</v>
+        <v>0.2720468955223991</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.06883801630441477</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0529285115601147</v>
+        <v>0.05395014184106671</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0792568145512331</v>
+        <v>0.07912681477518314</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3097652776613181</v>
+        <v>0.3098380724210488</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05095800495472066</v>
+        <v>0.05009613925159737</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06107311370315886</v>
+        <v>0.06168673816426504</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2477720138699381</v>
+        <v>0.2463312829638677</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05690097289137656</v>
+        <v>0.05558833646225288</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07346465467189664</v>
+        <v>0.07330937257321904</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2782842221667188</v>
+        <v>0.2788362661884763</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09823963924647859</v>
+        <v>0.09602021880820515</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1282628274040821</v>
+        <v>0.1292986236117784</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3867514651046715</v>
+        <v>0.387047660881231</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08148379608767083</v>
+        <v>0.08264638460310159</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1017246191402817</v>
+        <v>0.09938067531907933</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2978657150731527</v>
+        <v>0.2962026087467691</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08219798362294489</v>
+        <v>0.08403865632639543</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1048372053928945</v>
+        <v>0.1027614144543483</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3236236584989884</v>
+        <v>0.3246823042164413</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.08740017300855117</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.3220705065949919</v>
+        <v>0.3220705065949918</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08443551474941989</v>
+        <v>0.08621785446604642</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09313418784045498</v>
+        <v>0.09389007921466885</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.310550823126809</v>
+        <v>0.3086105691817236</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05523177323684227</v>
+        <v>0.05226761388537129</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04054254451499879</v>
+        <v>0.04079056189578521</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2790802866468435</v>
+        <v>0.2816551632878538</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07736515339575437</v>
+        <v>0.07588777193970885</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07171604022072869</v>
+        <v>0.07247852843875914</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.30203857644539</v>
+        <v>0.3027600887054995</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1578142375869033</v>
+        <v>0.1505434594330858</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1432441178590722</v>
+        <v>0.1449073983237912</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3725975126926653</v>
+        <v>0.3714775264457874</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1135094577459886</v>
+        <v>0.1135436630455929</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07909327992158532</v>
+        <v>0.07792740382183612</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3293375675795844</v>
+        <v>0.3306256006374082</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1213522483042353</v>
+        <v>0.1208495157199087</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1053875897326032</v>
+        <v>0.1048097116497946</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3425293058332635</v>
+        <v>0.3409610253086295</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.1782106139892931</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4393592922065168</v>
+        <v>0.4393592922065167</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1982888842078598</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08204330742231099</v>
+        <v>0.08675020893235094</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1169570540183945</v>
+        <v>0.1221641975647766</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3855668652380178</v>
+        <v>0.3894541278308398</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1151423823056814</v>
+        <v>0.1092638269833053</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07663784222051538</v>
+        <v>0.0798412329499313</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3458776585306492</v>
+        <v>0.3452505285374388</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1092880041878244</v>
+        <v>0.1122480104804321</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1159463042958853</v>
+        <v>0.1185456827138098</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3787764520933295</v>
+        <v>0.3787839517881096</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2419557126704839</v>
+        <v>0.2408734619248845</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2507606292588831</v>
+        <v>0.2534268578811028</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4917853691679224</v>
+        <v>0.4967217445275585</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3355625629459599</v>
+        <v>0.3355949955469689</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2155526453781711</v>
+        <v>0.2105427594963099</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4352965766338935</v>
+        <v>0.43960193660673</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2328139486627303</v>
+        <v>0.2325689722510223</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2066897541660583</v>
+        <v>0.2112518117033319</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4516995465608703</v>
+        <v>0.4534092928197999</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.09438003888075018</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.3307567046821122</v>
+        <v>0.330756704682112</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07679473162933902</v>
+        <v>0.07877407590280144</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1007502021040722</v>
+        <v>0.1014993455265285</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3400653183620163</v>
+        <v>0.3380205836077132</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06016080411316693</v>
+        <v>0.06175410211520713</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06049227947254662</v>
+        <v>0.06151867982265467</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2876917896666327</v>
+        <v>0.2894151803945957</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07416849501102736</v>
+        <v>0.07277919344804215</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08308484094505712</v>
+        <v>0.08409029211005008</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3173859775844328</v>
+        <v>0.3172256239123473</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1144433624749583</v>
+        <v>0.1163043504765439</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1358794099769646</v>
+        <v>0.1359141693062428</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3871549380461618</v>
+        <v>0.3837957283360327</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09051879128924192</v>
+        <v>0.08972323713530637</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09026503961923538</v>
+        <v>0.08921714918547398</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.322224229853211</v>
+        <v>0.3211912934305481</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09704756862754188</v>
+        <v>0.0961116632567951</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1061087508254356</v>
+        <v>0.1052665761957432</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3457367814431457</v>
+        <v>0.3469665672623455</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>34414</v>
+        <v>35078</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>43562</v>
+        <v>43490</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>134720</v>
+        <v>134752</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>51587</v>
+        <v>50714</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>49568</v>
+        <v>50066</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>171286</v>
+        <v>170290</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>94600</v>
+        <v>92417</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>100003</v>
+        <v>99791</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>313408</v>
+        <v>314030</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>63875</v>
+        <v>62432</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>70497</v>
+        <v>71066</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>168202</v>
+        <v>168331</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>82489</v>
+        <v>83666</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>82561</v>
+        <v>80659</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>205916</v>
+        <v>204766</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>136657</v>
+        <v>139717</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>142708</v>
+        <v>139883</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>364470</v>
+        <v>365662</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>36861</v>
+        <v>37639</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>63563</v>
+        <v>64079</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>266527</v>
+        <v>264862</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21488</v>
+        <v>20335</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>26673</v>
+        <v>26836</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>225316</v>
+        <v>227395</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>63874</v>
+        <v>62654</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>96128</v>
+        <v>97150</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>503072</v>
+        <v>504274</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>68896</v>
+        <v>65721</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>97763</v>
+        <v>98898</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>319778</v>
+        <v>318817</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>44161</v>
+        <v>44174</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>52036</v>
+        <v>51269</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>265891</v>
+        <v>266931</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>100190</v>
+        <v>99775</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>141261</v>
+        <v>140487</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>570513</v>
+        <v>567901</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8608</v>
+        <v>9102</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18995</v>
+        <v>19841</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>114174</v>
+        <v>115325</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7252</v>
+        <v>6882</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9328</v>
+        <v>9718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>85801</v>
+        <v>85645</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>18350</v>
+        <v>18847</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>32943</v>
+        <v>33682</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>206125</v>
+        <v>206129</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25386</v>
+        <v>25273</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40726</v>
+        <v>41159</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>145627</v>
+        <v>147089</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21136</v>
+        <v>21138</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26235</v>
+        <v>25626</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>107983</v>
+        <v>109051</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>39091</v>
+        <v>39050</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>58725</v>
+        <v>60021</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>245809</v>
+        <v>246739</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>91515</v>
+        <v>93874</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>140499</v>
+        <v>141543</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>540455</v>
+        <v>537206</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>88098</v>
+        <v>90431</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>96257</v>
+        <v>97890</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>502518</v>
+        <v>505528</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>196995</v>
+        <v>193305</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>248071</v>
+        <v>251073</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1058798</v>
+        <v>1058263</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>136380</v>
+        <v>138598</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>189487</v>
+        <v>189536</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>615293</v>
+        <v>609955</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>132553</v>
+        <v>131388</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>143633</v>
+        <v>141965</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>562837</v>
+        <v>561033</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>257763</v>
+        <v>255278</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>316815</v>
+        <v>314300</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1153376</v>
+        <v>1157478</v>
       </c>
     </row>
     <row r="20">
